--- a/biology/Microbiologie/Centropyxiella/Centropyxiella.xlsx
+++ b/biology/Microbiologie/Centropyxiella/Centropyxiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centropyxiella est un genre d'amibozoaires de la famille des Centropyxidae. Selon le site WoRMS, ce genre contient les espèces C. arenaria, C. elegans, C. gibbula, C. gibbulina, C. golemanskyi, C. lucida, C. oopyxiformis et C. platystoma.
 </t>
